--- a/biology/Zoologie/Fissurellidae/Fissurellidae.xlsx
+++ b/biology/Zoologie/Fissurellidae/Fissurellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fissurellidae (ou Fissurelles) sont une  famille de gastéropodes de l'ordre des Archaeogastropoda, créée par John Fleming (1785-1857) en 1822.
 </t>
@@ -511,7 +523,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces mollusques aquatiques marins sont très fragiles ; C'est parce qu'on ne pouvait les maintenir en vie en aquarium plus de quelques jours que le biologiste marin Louis Boutan, qui voulait étudier de manière détaillée l'une des espèces méditerranéennes de fissurelle (Diodora italica) a décidé au Laboratoire Arago de Banyuls-sur-Mer à la fin du XIXe siècle d'inventer la photographie subaquatique, afin d'observer et documenter la biologie de cet organismes (et d'autres) directement in situ, dans leur environnement marin naturel. 
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (25 octobre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (25 octobre 2014) :
 sous-famille Diodorinae Odhner, 1932
 genre Cosmetalepas Iredale, 1924
 genre Diodora J. E. Gray, 1821
